--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Sort1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3771826666666667</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H2">
-        <v>1.131548</v>
+        <v>0.116576</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N2">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q2">
-        <v>1.377786171920889</v>
+        <v>0.03647511491200001</v>
       </c>
       <c r="R2">
-        <v>12.400075547288</v>
+        <v>0.328276034208</v>
       </c>
       <c r="S2">
-        <v>0.1451640905049821</v>
+        <v>0.003905323877196052</v>
       </c>
       <c r="T2">
-        <v>0.1451640905049821</v>
+        <v>0.003905323877196052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3771826666666667</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H3">
-        <v>1.131548</v>
+        <v>0.116576</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.451331</v>
       </c>
       <c r="O3">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P3">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q3">
-        <v>0.9368376322653333</v>
+        <v>0.09651626251733333</v>
       </c>
       <c r="R3">
-        <v>8.431538690387999</v>
+        <v>0.8686463626559999</v>
       </c>
       <c r="S3">
-        <v>0.09870557972652284</v>
+        <v>0.01033381979621011</v>
       </c>
       <c r="T3">
-        <v>0.09870557972652286</v>
+        <v>0.01033381979621011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3771826666666667</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H4">
-        <v>1.131548</v>
+        <v>0.116576</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,208 @@
         <v>57.080637</v>
       </c>
       <c r="O4">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P4">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q4">
+        <v>0.7393591487679999</v>
+      </c>
+      <c r="R4">
+        <v>6.654232338911999</v>
+      </c>
+      <c r="S4">
+        <v>0.07916183251165237</v>
+      </c>
+      <c r="T4">
+        <v>0.07916183251165237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3771826666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.131548</v>
+      </c>
+      <c r="I5">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="J5">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.9386610000000001</v>
+      </c>
+      <c r="N5">
+        <v>2.815983</v>
+      </c>
+      <c r="O5">
+        <v>0.04181245246793033</v>
+      </c>
+      <c r="P5">
+        <v>0.04181245246793032</v>
+      </c>
+      <c r="Q5">
+        <v>0.354046659076</v>
+      </c>
+      <c r="R5">
+        <v>3.186419931684</v>
+      </c>
+      <c r="S5">
+        <v>0.03790712859073428</v>
+      </c>
+      <c r="T5">
+        <v>0.03790712859073427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3771826666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.131548</v>
+      </c>
+      <c r="I6">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="J6">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.483777</v>
+      </c>
+      <c r="N6">
+        <v>7.451331</v>
+      </c>
+      <c r="O6">
+        <v>0.1106393125456779</v>
+      </c>
+      <c r="P6">
+        <v>0.1106393125456779</v>
+      </c>
+      <c r="Q6">
+        <v>0.9368376322653333</v>
+      </c>
+      <c r="R6">
+        <v>8.431538690387999</v>
+      </c>
+      <c r="S6">
+        <v>0.1003054927494678</v>
+      </c>
+      <c r="T6">
+        <v>0.1003054927494678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3771826666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.131548</v>
+      </c>
+      <c r="I7">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="J7">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>19.026879</v>
+      </c>
+      <c r="N7">
+        <v>57.080637</v>
+      </c>
+      <c r="O7">
+        <v>0.8475482349863918</v>
+      </c>
+      <c r="P7">
+        <v>0.8475482349863918</v>
+      </c>
+      <c r="Q7">
         <v>7.176608959563999</v>
       </c>
-      <c r="R4">
+      <c r="R7">
         <v>64.58948063607599</v>
       </c>
-      <c r="S4">
-        <v>0.7561303297684949</v>
-      </c>
-      <c r="T4">
-        <v>0.756130329768495</v>
+      <c r="S7">
+        <v>0.7683864024747394</v>
+      </c>
+      <c r="T7">
+        <v>0.7683864024747394</v>
       </c>
     </row>
   </sheetData>
